--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3795.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3795.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Joshua H Davey</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3121</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3299</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3301</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3497</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1285,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1372,7 +1436,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3733</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1784,7 +1847,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -1792,7 +1854,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1844,7 +1906,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1896,7 +1958,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1948,7 +2010,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2000,7 +2062,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2052,7 +2114,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2091,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2175,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2150,7 +2212,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3121</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2187,7 +2249,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2224,7 +2286,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2261,7 +2323,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2298,7 +2360,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3299</t>
+          <t>3299</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2335,7 +2397,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3301</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2372,7 +2434,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3307</t>
+          <t>3307</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2409,7 +2471,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2446,7 +2508,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3428</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2483,7 +2545,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2520,7 +2582,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2557,7 +2619,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3674</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2594,7 +2656,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3675</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2631,7 +2693,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3676</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2668,7 +2730,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3721</t>
+          <t>3721</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2705,7 +2767,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2742,7 +2804,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2779,7 +2841,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2816,7 +2878,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2853,7 +2915,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3774</t>
+          <t>3774</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2890,7 +2952,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2927,7 +2989,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2964,7 +3026,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3880</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3001,7 +3063,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3919</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3038,7 +3100,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3075,7 +3137,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3112,7 +3174,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3149,7 +3211,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4384</t>
+          <t>4384</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3186,7 +3248,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4386</t>
+          <t>4386</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3212,6 +3274,555 @@
       <c r="G30" t="inlineStr">
         <is>
           <t>0/22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3674</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3675</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18.10%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3676</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.88%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3733</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7.75%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3919</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.47%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4384</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.57%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4386</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3795.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3795.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3347,7 +3348,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3423,9 +3423,6 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3438,10 +3435,6 @@
           <t>3721</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3484,10 +3477,6 @@
           <t>3733</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3530,15 +3519,458 @@
           <t>3761</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.48%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3774</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3880</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16.00%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3919</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.47%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4384</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.57%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4386</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3674</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3675</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3676</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3721</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3753</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3546,27 +3978,14 @@
           <t>3764</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3578,13 +3997,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3592,27 +4004,14 @@
           <t>3782</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.86%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3622,27 +4021,14 @@
           <t>3787</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3652,29 +4038,12 @@
           <t>3880</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>16.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3682,17 +4051,12 @@
           <t>3919</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3700,27 +4064,14 @@
           <t>3979</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3730,27 +4081,14 @@
           <t>3980</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>4</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.47%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3762,13 +4100,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3776,27 +4107,14 @@
           <t>4384</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.57%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>YES</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3806,25 +4124,12 @@
           <t>4386</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_3795.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_3795.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,6 +1284,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>12/09/2014</t>
@@ -1437,6 +1436,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>19/01/2015</t>
@@ -1848,6 +1848,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>14/08/2016</t>
@@ -3281,857 +3282,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3637</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3674</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.33%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3675</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18.10%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3676</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3721</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3725</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.88%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3733</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3753</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7.75%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3761</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3764</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.48%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3774</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3782</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.86%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3787</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3880</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>16.00%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3919</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3979</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3980</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.47%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4049</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4384</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.57%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4386</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>8</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3483</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3637</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3674</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3675</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3676</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3721</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3725</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3753</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3761</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3764</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3774</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3782</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3787</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3880</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3919</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3979</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3980</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4049</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4384</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4386</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>